--- a/ベースマシン接続一覧表.xlsx
+++ b/ベースマシン接続一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="166">
   <si>
     <t>ベースマシン接続一覧表</t>
     <rPh sb="6" eb="8">
@@ -617,7 +617,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2016.11.28</t>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slot_A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slot_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paste</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016.12.21</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1109,7 +1157,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1131,7 +1179,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1645,6 +1693,7 @@
       <c r="C29" t="s">
         <v>60</v>
       </c>
+      <c r="D29" s="5"/>
       <c r="E29" t="s">
         <v>26</v>
       </c>
@@ -1657,6 +1706,7 @@
       <c r="I29" t="s">
         <v>77</v>
       </c>
+      <c r="J29" s="5"/>
       <c r="K29" t="s">
         <v>26</v>
       </c>
@@ -1671,6 +1721,7 @@
       <c r="C30" t="s">
         <v>61</v>
       </c>
+      <c r="D30" s="11"/>
       <c r="E30" t="s">
         <v>150</v>
       </c>
@@ -1683,6 +1734,7 @@
       <c r="I30" t="s">
         <v>79</v>
       </c>
+      <c r="J30" s="3"/>
       <c r="K30" t="s">
         <v>26</v>
       </c>
@@ -1697,6 +1749,7 @@
       <c r="C31" t="s">
         <v>62</v>
       </c>
+      <c r="D31" s="7"/>
       <c r="E31" t="s">
         <v>150</v>
       </c>
@@ -1709,6 +1762,7 @@
       <c r="I31" t="s">
         <v>78</v>
       </c>
+      <c r="J31" s="11"/>
       <c r="K31" t="s">
         <v>26</v>
       </c>
@@ -1737,6 +1791,13 @@
       <c r="C33" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="D33" s="3"/>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>153</v>
+      </c>
       <c r="H33">
         <v>10</v>
       </c>
@@ -1764,6 +1825,7 @@
       <c r="I34" t="s">
         <v>81</v>
       </c>
+      <c r="J34" s="4"/>
       <c r="K34" t="s">
         <v>25</v>
       </c>
@@ -1793,6 +1855,7 @@
       <c r="I35" t="s">
         <v>82</v>
       </c>
+      <c r="J35" s="2"/>
       <c r="K35" t="s">
         <v>25</v>
       </c>
@@ -1820,6 +1883,7 @@
       <c r="I36" t="s">
         <v>83</v>
       </c>
+      <c r="J36" s="4"/>
       <c r="K36" t="s">
         <v>101</v>
       </c>
@@ -1889,6 +1953,7 @@
       <c r="I39" t="s">
         <v>84</v>
       </c>
+      <c r="J39" s="5"/>
       <c r="K39" t="s">
         <v>101</v>
       </c>
@@ -1916,6 +1981,7 @@
       <c r="I40" t="s">
         <v>85</v>
       </c>
+      <c r="J40" s="15"/>
       <c r="K40" t="s">
         <v>101</v>
       </c>
@@ -1930,12 +1996,20 @@
       <c r="C41" t="s">
         <v>71</v>
       </c>
+      <c r="D41" s="8"/>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
       <c r="H41">
         <v>26</v>
       </c>
       <c r="I41" t="s">
         <v>86</v>
       </c>
+      <c r="J41" s="7"/>
       <c r="K41" t="s">
         <v>101</v>
       </c>
@@ -1990,6 +2064,7 @@
       <c r="I43" t="s">
         <v>88</v>
       </c>
+      <c r="J43" s="11"/>
       <c r="K43" t="s">
         <v>101</v>
       </c>
@@ -2120,6 +2195,12 @@
       <c r="I51" t="s">
         <v>116</v>
       </c>
+      <c r="K51" t="s">
+        <v>155</v>
+      </c>
+      <c r="L51" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="52" spans="1:12">
       <c r="B52">
@@ -2140,6 +2221,12 @@
       <c r="I52" t="s">
         <v>117</v>
       </c>
+      <c r="K52" t="s">
+        <v>155</v>
+      </c>
+      <c r="L52" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="53" spans="1:12">
       <c r="B53">
@@ -2160,6 +2247,12 @@
       <c r="I53" t="s">
         <v>118</v>
       </c>
+      <c r="K53" t="s">
+        <v>156</v>
+      </c>
+      <c r="L53" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
       <c r="B54">
@@ -2180,6 +2273,12 @@
       <c r="I54" t="s">
         <v>119</v>
       </c>
+      <c r="K54" t="s">
+        <v>156</v>
+      </c>
+      <c r="L54" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
       <c r="B55">
@@ -2200,6 +2299,12 @@
       <c r="I55" t="s">
         <v>120</v>
       </c>
+      <c r="K55" t="s">
+        <v>156</v>
+      </c>
+      <c r="L55" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
       <c r="B56">
@@ -2220,6 +2325,12 @@
       <c r="I56" t="s">
         <v>121</v>
       </c>
+      <c r="K56" t="s">
+        <v>156</v>
+      </c>
+      <c r="L56" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="57" spans="1:12">
       <c r="B57">
@@ -2240,6 +2351,12 @@
       <c r="I57" t="s">
         <v>122</v>
       </c>
+      <c r="K57" t="s">
+        <v>156</v>
+      </c>
+      <c r="L57" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="58" spans="1:12">
       <c r="B58">
@@ -2260,6 +2377,12 @@
       <c r="I58" t="s">
         <v>123</v>
       </c>
+      <c r="K58" t="s">
+        <v>156</v>
+      </c>
+      <c r="L58" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="59" spans="1:12">
       <c r="B59">
@@ -2494,6 +2617,7 @@
       <c r="B76">
         <v>8</v>
       </c>
+      <c r="D76" s="8"/>
       <c r="E76" t="s">
         <v>135</v>
       </c>

--- a/ベースマシン接続一覧表.xlsx
+++ b/ベースマシン接続一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="176">
   <si>
     <t>ベースマシン接続一覧表</t>
     <rPh sb="6" eb="8">
@@ -524,148 +524,194 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Pattern8</t>
+  </si>
+  <si>
+    <t>Master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI Bus Buffer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI OUT1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI OUT2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI OUT3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIMode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EEPROM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slot_A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slot_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paste</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.01.06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Pattern2</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Pattern3</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Pattern4</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Pattern5</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Pattern6</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Pattern7</t>
-  </si>
-  <si>
-    <t>Pattern8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT24C1024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Master</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INTA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INTB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI Bus Buffer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DCO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI IN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI OUT1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI OUT2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DCF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI OUT3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DCA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIMode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EEPROM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SCL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RESET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Slot_A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Slot_B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Paste</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2016.12.21</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -699,7 +745,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +818,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -802,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +913,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,10 +1227,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1179,7 +1252,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1228,7 +1301,7 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="9"/>
       <c r="E7" t="s">
         <v>24</v>
       </c>
@@ -1241,7 +1314,7 @@
       <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="8"/>
       <c r="K7" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1329,7 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="7"/>
       <c r="E8" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1342,7 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="18"/>
       <c r="K8" t="s">
         <v>24</v>
       </c>
@@ -1314,7 +1387,7 @@
       <c r="I10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="15"/>
       <c r="K10" t="s">
         <v>24</v>
       </c>
@@ -1366,7 +1439,7 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="12"/>
       <c r="E13" t="s">
         <v>24</v>
       </c>
@@ -1477,10 +1550,10 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H18">
         <v>24</v>
@@ -1721,12 +1794,12 @@
       <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="19"/>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -1749,12 +1822,12 @@
       <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="4"/>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -1796,7 +1869,7 @@
         <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -2001,7 +2074,7 @@
         <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H41">
         <v>26</v>
@@ -2183,6 +2256,7 @@
       <c r="C51" t="s">
         <v>108</v>
       </c>
+      <c r="D51" s="11"/>
       <c r="E51" t="s">
         <v>26</v>
       </c>
@@ -2195,11 +2269,12 @@
       <c r="I51" t="s">
         <v>116</v>
       </c>
+      <c r="J51" s="5"/>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L51" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2209,11 +2284,12 @@
       <c r="C52" t="s">
         <v>109</v>
       </c>
+      <c r="D52" s="10"/>
       <c r="E52" t="s">
         <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="H52">
         <v>27</v>
@@ -2221,11 +2297,12 @@
       <c r="I52" t="s">
         <v>117</v>
       </c>
+      <c r="J52" s="4"/>
       <c r="K52" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L52" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2235,11 +2312,12 @@
       <c r="C53" t="s">
         <v>110</v>
       </c>
+      <c r="D53" s="7"/>
       <c r="E53" t="s">
         <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="H53">
         <v>26</v>
@@ -2247,11 +2325,12 @@
       <c r="I53" t="s">
         <v>118</v>
       </c>
+      <c r="J53" s="2"/>
       <c r="K53" t="s">
+        <v>149</v>
+      </c>
+      <c r="L53" t="s">
         <v>156</v>
-      </c>
-      <c r="L53" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2261,11 +2340,12 @@
       <c r="C54" t="s">
         <v>111</v>
       </c>
+      <c r="D54" s="8"/>
       <c r="E54" t="s">
         <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="H54">
         <v>25</v>
@@ -2273,11 +2353,12 @@
       <c r="I54" t="s">
         <v>119</v>
       </c>
+      <c r="J54" s="12"/>
       <c r="K54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L54" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2287,11 +2368,12 @@
       <c r="C55" t="s">
         <v>112</v>
       </c>
+      <c r="D55" s="12"/>
       <c r="E55" t="s">
         <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="H55">
         <v>24</v>
@@ -2299,11 +2381,12 @@
       <c r="I55" t="s">
         <v>120</v>
       </c>
+      <c r="J55" s="8"/>
       <c r="K55" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L55" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2313,11 +2396,12 @@
       <c r="C56" t="s">
         <v>113</v>
       </c>
+      <c r="D56" s="2"/>
       <c r="E56" t="s">
         <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="H56">
         <v>23</v>
@@ -2325,11 +2409,12 @@
       <c r="I56" t="s">
         <v>121</v>
       </c>
+      <c r="J56" s="7"/>
       <c r="K56" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="L56" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2339,11 +2424,12 @@
       <c r="C57" t="s">
         <v>114</v>
       </c>
+      <c r="D57" s="4"/>
       <c r="E57" t="s">
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H57">
         <v>22</v>
@@ -2351,11 +2437,12 @@
       <c r="I57" t="s">
         <v>122</v>
       </c>
+      <c r="J57" s="10"/>
       <c r="K57" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="L57" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2365,11 +2452,12 @@
       <c r="C58" t="s">
         <v>115</v>
       </c>
+      <c r="D58" s="5"/>
       <c r="E58" t="s">
         <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H58">
         <v>21</v>
@@ -2377,11 +2465,12 @@
       <c r="I58" t="s">
         <v>123</v>
       </c>
+      <c r="J58" s="18"/>
       <c r="K58" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="L58" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2391,11 +2480,12 @@
       <c r="C59" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="D59" s="5"/>
       <c r="H59">
         <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2405,11 +2495,12 @@
       <c r="C60" s="14" t="s">
         <v>124</v>
       </c>
+      <c r="D60" s="15"/>
       <c r="H60">
         <v>19</v>
       </c>
       <c r="I60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2419,9 +2510,9 @@
       <c r="C61" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="15"/>
+      <c r="D61" s="18"/>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F61" t="s">
         <v>49</v>
@@ -2432,9 +2523,9 @@
       <c r="I61" t="s">
         <v>33</v>
       </c>
-      <c r="J61" s="7"/>
+      <c r="J61" s="12"/>
       <c r="K61" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s">
         <v>33</v>
@@ -2447,9 +2538,9 @@
       <c r="C62" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="10"/>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
         <v>30</v>
@@ -2458,7 +2549,7 @@
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2468,9 +2559,9 @@
       <c r="C63" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="7"/>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
         <v>31</v>
@@ -2479,7 +2570,7 @@
         <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2489,9 +2580,9 @@
       <c r="C64" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="8"/>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
         <v>48</v>
@@ -2505,266 +2596,248 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="17" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="B67" s="17" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="B68" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G68" s="17"/>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:12">
       <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" t="s">
-        <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="H69">
+        <v>7</v>
+      </c>
+      <c r="I69" t="s">
+        <v>171</v>
+      </c>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" spans="1:12">
       <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>172</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" t="s">
+        <v>174</v>
+      </c>
+      <c r="L70" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="B72">
         <v>4</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>98</v>
-      </c>
-    </row>
+      <c r="C71" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>173</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="K71" t="s">
+        <v>174</v>
+      </c>
+      <c r="L71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="13" customFormat="1"/>
     <row r="73" spans="1:12">
-      <c r="B73">
-        <v>5</v>
-      </c>
-      <c r="D73" s="12"/>
-      <c r="E73" t="s">
-        <v>135</v>
-      </c>
-      <c r="F73" t="s">
-        <v>97</v>
+      <c r="A73" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="B74">
-        <v>6</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" t="s">
-        <v>135</v>
-      </c>
-      <c r="F74" t="s">
-        <v>99</v>
+      <c r="B74" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="B75">
-        <v>7</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" t="s">
-        <v>135</v>
-      </c>
-      <c r="F75" t="s">
-        <v>100</v>
-      </c>
+      <c r="B75" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" spans="1:12">
       <c r="B76">
-        <v>8</v>
-      </c>
-      <c r="D76" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="3"/>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="B77" s="17"/>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="B78" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="B79" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="80" spans="1:12">
       <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="D80" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="D80" s="12"/>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="81" spans="2:12">
       <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="D81" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="D81" s="7"/>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="82" spans="2:12">
       <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="D82" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="D82" s="10"/>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="83" spans="2:12">
       <c r="B83">
-        <v>4</v>
-      </c>
-      <c r="D83" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="D83" s="8"/>
       <c r="E83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="84" spans="2:12">
-      <c r="B84">
-        <v>5</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
+      <c r="B84" s="17"/>
     </row>
     <row r="85" spans="2:12">
-      <c r="B85">
-        <v>6</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
+      <c r="B85" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
@@ -2773,15 +2846,18 @@
       <c r="L85" s="17"/>
     </row>
     <row r="86" spans="2:12">
-      <c r="B86">
-        <v>7</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>13</v>
+      <c r="B86" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
@@ -2792,21 +2868,51 @@
     </row>
     <row r="87" spans="2:12">
       <c r="B87">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D87" s="13"/>
+      <c r="E87" t="s">
+        <v>135</v>
+      </c>
       <c r="F87" t="s">
-        <v>33</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
     </row>
     <row r="89" spans="2:12">
-      <c r="B89" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" t="s">
+        <v>135</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
@@ -2815,18 +2921,15 @@
       <c r="L89" s="17"/>
     </row>
     <row r="90" spans="2:12">
-      <c r="B90" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>38</v>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" t="s">
+        <v>135</v>
+      </c>
+      <c r="F90" t="s">
+        <v>98</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
@@ -2837,14 +2940,14 @@
     </row>
     <row r="91" spans="2:12">
       <c r="B91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
@@ -2855,14 +2958,14 @@
     </row>
     <row r="92" spans="2:12">
       <c r="B92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
@@ -2873,14 +2976,14 @@
     </row>
     <row r="93" spans="2:12">
       <c r="B93">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
@@ -2891,48 +2994,21 @@
     </row>
     <row r="94" spans="2:12">
       <c r="B94">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D94" s="13"/>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-    </row>
-    <row r="95" spans="2:12">
-      <c r="B95">
-        <v>5</v>
-      </c>
-      <c r="D95" s="13"/>
-      <c r="E95" t="s">
-        <v>145</v>
-      </c>
-      <c r="F95" t="s">
-        <v>97</v>
-      </c>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="96" spans="2:12">
-      <c r="B96">
-        <v>6</v>
-      </c>
-      <c r="D96" s="13"/>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
+      <c r="B96" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
@@ -2941,15 +3017,18 @@
       <c r="L96" s="17"/>
     </row>
     <row r="97" spans="2:12">
-      <c r="B97">
-        <v>7</v>
-      </c>
-      <c r="D97" s="13"/>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" t="s">
-        <v>13</v>
+      <c r="B97" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
@@ -2960,20 +3039,51 @@
     </row>
     <row r="98" spans="2:12">
       <c r="B98">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" t="s">
+        <v>139</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" t="s">
+        <v>139</v>
+      </c>
+      <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
     </row>
     <row r="100" spans="2:12">
-      <c r="B100" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" t="s">
+        <v>31</v>
+      </c>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
@@ -2982,18 +3092,12 @@
       <c r="L100" s="17"/>
     </row>
     <row r="101" spans="2:12">
-      <c r="B101" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>38</v>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" t="s">
+        <v>13</v>
       </c>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
@@ -3004,14 +3108,14 @@
     </row>
     <row r="102" spans="2:12">
       <c r="B102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
@@ -3022,14 +3126,14 @@
     </row>
     <row r="103" spans="2:12">
       <c r="B103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
@@ -3040,14 +3144,14 @@
     </row>
     <row r="104" spans="2:12">
       <c r="B104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
@@ -3058,45 +3162,20 @@
     </row>
     <row r="105" spans="2:12">
       <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="D105" s="13"/>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-    </row>
-    <row r="106" spans="2:12">
-      <c r="B106">
-        <v>5</v>
-      </c>
-      <c r="D106" s="13"/>
-      <c r="E106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="107" spans="2:12">
-      <c r="B107">
-        <v>6</v>
-      </c>
-      <c r="D107" s="13"/>
-      <c r="E107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F107" t="s">
-        <v>99</v>
-      </c>
+      <c r="B107" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
@@ -3105,15 +3184,18 @@
       <c r="L107" s="17"/>
     </row>
     <row r="108" spans="2:12">
-      <c r="B108">
-        <v>7</v>
-      </c>
-      <c r="D108" s="13"/>
-      <c r="E108" t="s">
-        <v>147</v>
-      </c>
-      <c r="F108" t="s">
-        <v>100</v>
+      <c r="B108" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
@@ -3124,16 +3206,136 @@
     </row>
     <row r="109" spans="2:12">
       <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" t="s">
+        <v>141</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="D110" s="13"/>
+      <c r="E110" t="s">
+        <v>141</v>
+      </c>
+      <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" t="s">
+        <v>141</v>
+      </c>
+      <c r="F111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="D112" s="13"/>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="D113" s="13"/>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="D114" s="13"/>
+      <c r="E114" t="s">
+        <v>141</v>
+      </c>
+      <c r="F114" t="s">
+        <v>99</v>
+      </c>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="D115" s="13"/>
+      <c r="E115" t="s">
+        <v>141</v>
+      </c>
+      <c r="F115" t="s">
+        <v>100</v>
+      </c>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116">
         <v>8</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F116" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="2:12">
-      <c r="B111" s="13"/>
-      <c r="C111" s="14"/>
-      <c r="D111" t="s">
+    <row r="118" spans="2:12">
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118" t="s">
         <v>91</v>
       </c>
     </row>

--- a/ベースマシン接続一覧表.xlsx
+++ b/ベースマシン接続一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="185">
   <si>
     <t>ベースマシン接続一覧表</t>
     <rPh sb="6" eb="8">
@@ -639,10 +639,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.01.06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Pattern2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -671,7 +667,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AT24C1024</t>
+    <t>2017.01.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exio Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -679,47 +703,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCL</t>
-    <phoneticPr fontId="1"/>
+    <t>RESET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MISO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOSI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EEPROM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCP23S17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCP23S18</t>
+  </si>
+  <si>
+    <t>MCP23S19</t>
+  </si>
+  <si>
+    <t>MCP23S20</t>
+  </si>
+  <si>
+    <t>MCP23S21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,8 +776,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,12 +864,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -860,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,13 +955,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,10 +1288,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection sqref="A1:L126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1252,7 +1313,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2217,7 +2278,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="17" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2235,756 +2296,651 @@
         <v>38</v>
       </c>
       <c r="G50" s="17"/>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:12" s="21" customFormat="1">
+      <c r="B51" s="21">
+        <v>1</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="21" customFormat="1">
+      <c r="B52" s="21">
         <v>2</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="C52" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="21" customFormat="1">
+      <c r="B53" s="21">
+        <v>3</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="21" customFormat="1">
+      <c r="B54" s="21">
+        <v>4</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="21" customFormat="1">
+      <c r="B55" s="21">
+        <v>5</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="21" customFormat="1">
+      <c r="B56" s="21">
+        <v>6</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="21" customFormat="1">
+      <c r="B57" s="21">
+        <v>7</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="21" customFormat="1">
+      <c r="B58" s="21">
+        <v>8</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="21" customFormat="1">
+      <c r="B59" s="21">
+        <v>9</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="28"/>
+      <c r="E59" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="21" customFormat="1">
+      <c r="B60" s="21">
+        <v>10</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="21" customFormat="1">
+      <c r="B61" s="21">
+        <v>11</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="21" customFormat="1">
+      <c r="D62" s="31"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="F65" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="B51">
+      <c r="G65" s="17"/>
+      <c r="H65" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C66" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" t="s">
+      <c r="D66" s="11"/>
+      <c r="E66" t="s">
         <v>26</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F66" t="s">
         <v>127</v>
       </c>
-      <c r="H51">
+      <c r="H66">
         <v>28</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I66" t="s">
         <v>116</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" t="s">
+      <c r="J66" s="5"/>
+      <c r="K66" t="s">
         <v>142</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L66" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="B52">
+    <row r="67" spans="2:12">
+      <c r="B67">
         <v>2</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C67" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" t="s">
         <v>26</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F67" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>117</v>
+      </c>
+      <c r="J67" s="4"/>
+      <c r="K67" t="s">
+        <v>142</v>
+      </c>
+      <c r="L67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" t="s">
+        <v>157</v>
+      </c>
+      <c r="H68">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s">
+        <v>118</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" t="s">
+        <v>149</v>
+      </c>
+      <c r="L68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" t="s">
         <v>161</v>
       </c>
-      <c r="H52">
-        <v>27</v>
-      </c>
-      <c r="I52" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" s="4"/>
-      <c r="K52" t="s">
+      <c r="H69">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>119</v>
+      </c>
+      <c r="J69" s="12"/>
+      <c r="K69" t="s">
+        <v>149</v>
+      </c>
+      <c r="L69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" t="s">
+        <v>158</v>
+      </c>
+      <c r="H70">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>120</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" t="s">
+        <v>149</v>
+      </c>
+      <c r="L70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" t="s">
+        <v>162</v>
+      </c>
+      <c r="H71">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>121</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" t="s">
         <v>142</v>
       </c>
-      <c r="L52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" t="s">
+      <c r="L71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" t="s">
         <v>26</v>
       </c>
-      <c r="F53" t="s">
-        <v>158</v>
-      </c>
-      <c r="H53">
+      <c r="F72" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72">
+        <v>22</v>
+      </c>
+      <c r="I72" t="s">
+        <v>122</v>
+      </c>
+      <c r="J72" s="10"/>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" t="s">
         <v>26</v>
       </c>
-      <c r="I53" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" s="2"/>
-      <c r="K53" t="s">
-        <v>149</v>
-      </c>
-      <c r="L53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" t="s">
-        <v>162</v>
-      </c>
-      <c r="H54">
+      <c r="F73" t="s">
+        <v>128</v>
+      </c>
+      <c r="H73">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
+        <v>123</v>
+      </c>
+      <c r="J73" s="18"/>
+      <c r="K73" t="s">
         <v>25</v>
       </c>
-      <c r="I54" t="s">
-        <v>119</v>
-      </c>
-      <c r="J54" s="12"/>
-      <c r="K54" t="s">
-        <v>149</v>
-      </c>
-      <c r="L54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="B55">
+      <c r="L73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C55" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" t="s">
-        <v>159</v>
-      </c>
-      <c r="H55">
-        <v>24</v>
-      </c>
-      <c r="I55" t="s">
-        <v>120</v>
-      </c>
-      <c r="J55" s="8"/>
-      <c r="K55" t="s">
-        <v>149</v>
-      </c>
-      <c r="L55" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" t="s">
-        <v>163</v>
-      </c>
-      <c r="H56">
-        <v>23</v>
-      </c>
-      <c r="I56" t="s">
-        <v>121</v>
-      </c>
-      <c r="J56" s="7"/>
-      <c r="K56" t="s">
-        <v>142</v>
-      </c>
-      <c r="L56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57">
-        <v>22</v>
-      </c>
-      <c r="I57" t="s">
-        <v>122</v>
-      </c>
-      <c r="J57" s="10"/>
-      <c r="K57" t="s">
-        <v>25</v>
-      </c>
-      <c r="L57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" t="s">
-        <v>128</v>
-      </c>
-      <c r="H58">
-        <v>21</v>
-      </c>
-      <c r="I58" t="s">
-        <v>123</v>
-      </c>
-      <c r="J58" s="18"/>
-      <c r="K58" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="B59">
-        <v>9</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="H59">
+      <c r="D74" s="5"/>
+      <c r="H74">
         <v>20</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I74" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="B60">
+    <row r="75" spans="2:12">
+      <c r="B75">
         <v>10</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="H60">
+      <c r="D75" s="15"/>
+      <c r="H75">
         <v>19</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I75" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="B61">
+    <row r="76" spans="2:12">
+      <c r="B76">
         <v>11</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C76" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-      <c r="H61">
-        <v>18</v>
-      </c>
-      <c r="I61" t="s">
-        <v>33</v>
-      </c>
-      <c r="J61" s="12"/>
-      <c r="K61" t="s">
-        <v>129</v>
-      </c>
-      <c r="L61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="B62">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62">
-        <v>17</v>
-      </c>
-      <c r="I62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="B63">
-        <v>13</v>
-      </c>
-      <c r="C63" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63">
-        <v>16</v>
-      </c>
-      <c r="I63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="B64">
-        <v>14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" t="s">
-        <v>48</v>
-      </c>
-      <c r="H64">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="B67" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L67" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>166</v>
-      </c>
-      <c r="D68" s="20"/>
-      <c r="H68">
-        <v>8</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="20"/>
-      <c r="H69">
-        <v>7</v>
-      </c>
-      <c r="I69" t="s">
-        <v>171</v>
-      </c>
-      <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" s="20"/>
-      <c r="H70">
-        <v>6</v>
-      </c>
-      <c r="I70" t="s">
-        <v>172</v>
-      </c>
-      <c r="J70" s="2"/>
-      <c r="K70" t="s">
-        <v>174</v>
-      </c>
-      <c r="L70" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="B71">
-        <v>4</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="I71" t="s">
-        <v>173</v>
-      </c>
-      <c r="J71" s="4"/>
-      <c r="K71" t="s">
-        <v>174</v>
-      </c>
-      <c r="L71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="13" customFormat="1"/>
-    <row r="73" spans="1:12">
-      <c r="A73" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="B74" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="B75" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G75" s="17"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="3"/>
+      <c r="D76" s="18"/>
       <c r="E76" t="s">
         <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>49</v>
+      </c>
+      <c r="H76">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="12"/>
+      <c r="K76" t="s">
+        <v>129</v>
+      </c>
+      <c r="L76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
       <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="D77" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="10"/>
       <c r="E77" t="s">
         <v>129</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="H77">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
       <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="D78" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="7"/>
       <c r="E78" t="s">
         <v>129</v>
       </c>
       <c r="F78" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="H78">
+        <v>16</v>
+      </c>
+      <c r="I78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
       <c r="B79">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>126</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" t="s">
         <v>129</v>
       </c>
       <c r="F79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="B82" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="B83" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="B80">
+    <row r="88" spans="1:12">
+      <c r="B88">
         <v>5</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" t="s">
+      <c r="D88" s="12"/>
+      <c r="E88" t="s">
         <v>129</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F88" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="2:12">
-      <c r="B81">
+    <row r="89" spans="1:12">
+      <c r="B89">
         <v>6</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" t="s">
+      <c r="D89" s="7"/>
+      <c r="E89" t="s">
         <v>129</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="2:12">
-      <c r="B82">
+    <row r="90" spans="1:12">
+      <c r="B90">
         <v>7</v>
       </c>
-      <c r="D82" s="10"/>
-      <c r="E82" t="s">
+      <c r="D90" s="10"/>
+      <c r="E90" t="s">
         <v>129</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F90" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:12">
-      <c r="B83">
+    <row r="91" spans="1:12">
+      <c r="B91">
         <v>8</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" t="s">
+      <c r="D91" s="8"/>
+      <c r="E91" t="s">
         <v>129</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F91" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="2:12">
-      <c r="B84" s="17"/>
-    </row>
-    <row r="85" spans="2:12">
-      <c r="B85" s="17" t="s">
+    <row r="92" spans="1:12">
+      <c r="B92" s="17"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="B93" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="2:12">
-      <c r="B86" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="2:12">
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="D87" s="13"/>
-      <c r="E87" t="s">
-        <v>135</v>
-      </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="2:12">
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="D88" s="13"/>
-      <c r="E88" t="s">
-        <v>135</v>
-      </c>
-      <c r="F88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-    </row>
-    <row r="89" spans="2:12">
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="D89" s="13"/>
-      <c r="E89" t="s">
-        <v>135</v>
-      </c>
-      <c r="F89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="2:12">
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="D90" s="13"/>
-      <c r="E90" t="s">
-        <v>135</v>
-      </c>
-      <c r="F90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="2:12">
-      <c r="B91">
-        <v>5</v>
-      </c>
-      <c r="D91" s="13"/>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-    </row>
-    <row r="92" spans="2:12">
-      <c r="B92">
-        <v>6</v>
-      </c>
-      <c r="D92" s="13"/>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-    </row>
-    <row r="93" spans="2:12">
-      <c r="B93">
-        <v>7</v>
-      </c>
-      <c r="D93" s="13"/>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" t="s">
-        <v>13</v>
-      </c>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -2992,23 +2948,56 @@
       <c r="K93" s="17"/>
       <c r="L93" s="17"/>
     </row>
-    <row r="94" spans="2:12">
-      <c r="B94">
-        <v>8</v>
-      </c>
-      <c r="D94" s="13"/>
-      <c r="F94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12">
-      <c r="B96" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
+    <row r="94" spans="1:12">
+      <c r="B94" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s">
+        <v>135</v>
+      </c>
+      <c r="F96" t="s">
+        <v>30</v>
+      </c>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
@@ -3017,18 +3006,15 @@
       <c r="L96" s="17"/>
     </row>
     <row r="97" spans="2:12">
-      <c r="B97" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>38</v>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" t="s">
+        <v>31</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
@@ -3039,14 +3025,14 @@
     </row>
     <row r="98" spans="2:12">
       <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="D98" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="D98" s="20"/>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
@@ -3057,14 +3043,14 @@
     </row>
     <row r="99" spans="2:12">
       <c r="B99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
@@ -3075,14 +3061,14 @@
     </row>
     <row r="100" spans="2:12">
       <c r="B100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
@@ -3093,10 +3079,13 @@
     </row>
     <row r="101" spans="2:12">
       <c r="B101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
         <v>13</v>
       </c>
       <c r="G101" s="17"/>
@@ -3108,51 +3097,24 @@
     </row>
     <row r="102" spans="2:12">
       <c r="B102">
-        <v>5</v>
-      </c>
-      <c r="D102" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="D102" s="8"/>
       <c r="E102" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-    </row>
-    <row r="103" spans="2:12">
-      <c r="B103">
-        <v>6</v>
-      </c>
-      <c r="D103" s="13"/>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="104" spans="2:12">
-      <c r="B104">
-        <v>7</v>
-      </c>
-      <c r="D104" s="13"/>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
+      <c r="B104" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
@@ -3161,21 +3123,55 @@
       <c r="L104" s="17"/>
     </row>
     <row r="105" spans="2:12">
-      <c r="B105">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>33</v>
-      </c>
+      <c r="B105" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
     </row>
     <row r="107" spans="2:12">
-      <c r="B107" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" t="s">
+        <v>30</v>
+      </c>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
@@ -3184,18 +3180,15 @@
       <c r="L107" s="17"/>
     </row>
     <row r="108" spans="2:12">
-      <c r="B108" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F108" s="17" t="s">
-        <v>38</v>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" t="s">
+        <v>31</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
@@ -3206,14 +3199,11 @@
     </row>
     <row r="109" spans="2:12">
       <c r="B109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" t="s">
-        <v>141</v>
-      </c>
-      <c r="F109" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
@@ -3224,14 +3214,14 @@
     </row>
     <row r="110" spans="2:12">
       <c r="B110">
-        <v>2</v>
-      </c>
-      <c r="D110" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="D110" s="20"/>
       <c r="E110" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
@@ -3242,14 +3232,14 @@
     </row>
     <row r="111" spans="2:12">
       <c r="B111">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
@@ -3260,10 +3250,13 @@
     </row>
     <row r="112" spans="2:12">
       <c r="B112">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
         <v>13</v>
       </c>
       <c r="G112" s="17"/>
@@ -3275,48 +3268,23 @@
     </row>
     <row r="113" spans="2:12">
       <c r="B113">
-        <v>5</v>
-      </c>
-      <c r="D113" s="13"/>
+        <v>8</v>
+      </c>
       <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="2:12">
-      <c r="B114">
-        <v>6</v>
-      </c>
-      <c r="D114" s="13"/>
-      <c r="E114" t="s">
-        <v>141</v>
-      </c>
-      <c r="F114" t="s">
-        <v>99</v>
-      </c>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
+        <v>165</v>
+      </c>
+      <c r="F113" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="115" spans="2:12">
-      <c r="B115">
-        <v>7</v>
-      </c>
-      <c r="D115" s="13"/>
-      <c r="E115" t="s">
-        <v>141</v>
-      </c>
-      <c r="F115" t="s">
-        <v>100</v>
-      </c>
+      <c r="B115" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
@@ -3325,17 +3293,158 @@
       <c r="L115" s="17"/>
     </row>
     <row r="116" spans="2:12">
-      <c r="B116">
+      <c r="B116" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" t="s">
+        <v>141</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s">
+        <v>141</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" t="s">
+        <v>141</v>
+      </c>
+      <c r="F119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="D120" s="13"/>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+    </row>
+    <row r="121" spans="2:12">
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="D122" s="20"/>
+      <c r="E122" t="s">
+        <v>141</v>
+      </c>
+      <c r="F122" t="s">
+        <v>99</v>
+      </c>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="D123" s="10"/>
+      <c r="E123" t="s">
+        <v>141</v>
+      </c>
+      <c r="F123" t="s">
+        <v>100</v>
+      </c>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124">
         <v>8</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F124" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="2:12">
-      <c r="B118" s="13"/>
-      <c r="C118" s="14"/>
-      <c r="D118" t="s">
+    <row r="126" spans="2:12">
+      <c r="B126" s="13"/>
+      <c r="C126" s="14"/>
+      <c r="D126" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3343,9 +3452,9 @@
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="47" max="16383" man="1"/>
+    <brk id="62" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/ベースマシン接続一覧表.xlsx
+++ b/ベースマシン接続一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="268">
   <si>
     <t>ベースマシン接続一覧表</t>
     <rPh sb="6" eb="8">
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BPM_A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BPM_B</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -429,153 +425,557 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Tie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NoteOnOff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP_A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCP23S17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPB0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPB1</t>
+  </si>
+  <si>
+    <t>GPB2</t>
+  </si>
+  <si>
+    <t>GPB3</t>
+  </si>
+  <si>
+    <t>GPB4</t>
+  </si>
+  <si>
+    <t>GPB5</t>
+  </si>
+  <si>
+    <t>GPB6</t>
+  </si>
+  <si>
+    <t>GPB7</t>
+  </si>
+  <si>
+    <t>GPA7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPA6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPA5</t>
+  </si>
+  <si>
+    <t>GPA4</t>
+  </si>
+  <si>
+    <t>GPA3</t>
+  </si>
+  <si>
+    <t>GPA2</t>
+  </si>
+  <si>
+    <t>GPA1</t>
+  </si>
+  <si>
+    <t>GPA0</t>
+  </si>
+  <si>
+    <t>VSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern8</t>
+  </si>
+  <si>
+    <t>Master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI Bus Buffer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI OUT1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI OUT2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI OUT3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIMode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EEPROM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slot_A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slot_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paste</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exio Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MISO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOSI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EEPROM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCP23S17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.03.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPM_A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI2/RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI2/SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI1/SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI1/RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UART</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI1/GLCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+9V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI2/SYNC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYNCIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI1 Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>Pitch_A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pitch_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OctaveUp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OctaveDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>2_7</t>
+  </si>
+  <si>
+    <t>3_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>3_7</t>
+  </si>
+  <si>
+    <t>3_8</t>
+  </si>
+  <si>
+    <t>RE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D/I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>GLCD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>RST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP_A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Tie</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NoteOnOff</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STEP_B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STEP_A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CN10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MCP23S17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPB0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPB1</t>
-  </si>
-  <si>
-    <t>GPB2</t>
-  </si>
-  <si>
-    <t>GPB3</t>
-  </si>
-  <si>
-    <t>GPB4</t>
-  </si>
-  <si>
-    <t>GPB5</t>
-  </si>
-  <si>
-    <t>GPB6</t>
-  </si>
-  <si>
-    <t>GPB7</t>
-  </si>
-  <si>
-    <t>GPA7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPA6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPA5</t>
-  </si>
-  <si>
-    <t>GPA4</t>
-  </si>
-  <si>
-    <t>GPA3</t>
-  </si>
-  <si>
-    <t>GPA2</t>
-  </si>
-  <si>
-    <t>GPA1</t>
-  </si>
-  <si>
-    <t>GPA0</t>
-  </si>
-  <si>
-    <t>VSS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pattern1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pattern8</t>
-  </si>
-  <si>
-    <t>Master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INTA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INTB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI Bus Buffer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DCO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI IN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI OUT1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI OUT2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DCF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPI OUT3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DCA</t>
+    <t>Accent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RunStop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←再チェック</t>
+    <rPh sb="1" eb="2">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI2 Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SyncIn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPM_A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPM_B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -583,175 +983,98 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>WaveShape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>UIMode</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EEPROM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RESET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Slot_A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Slot_B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Paste</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pattern2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pattern3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pattern4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pattern5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pattern6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pattern7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2017.01.11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Exio Board</t>
-    <phoneticPr fontId="1"/>
+    <t>7_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>4_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>6_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6_2</t>
   </si>
   <si>
     <t>3V3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SDA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RESET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MISO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MOSI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PWR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EEPROM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MCP23S17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MCP23S18</t>
-  </si>
-  <si>
-    <t>MCP23S19</t>
-  </si>
-  <si>
-    <t>MCP23S20</t>
-  </si>
-  <si>
-    <t>MCP23S21</t>
+    <t>POT/VCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POT/GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nucleo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nucleo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI1/PWR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←再チェック</t>
+    <rPh sb="1" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+3.3V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←チェック</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,8 +1107,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +1194,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -894,7 +1236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +1331,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1288,16 +1648,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R126"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection sqref="A1:L126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10260" topLeftCell="A75"/>
+      <selection activeCell="B172" sqref="B172"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.125" customWidth="1"/>
@@ -1313,7 +1675,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1323,7 +1685,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1331,28 +1693,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1367,7 +1729,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1380,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1395,7 +1757,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1408,7 +1770,7 @@
         <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1416,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" t="s">
@@ -1505,7 +1867,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>14</v>
@@ -1515,10 +1877,10 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1530,16 +1892,16 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="H14">
         <v>16</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" s="1"/>
       <c r="R14" s="1"/>
@@ -1553,16 +1915,16 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15">
         <v>18</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O15" s="1"/>
       <c r="R15" s="1"/>
@@ -1581,7 +1943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>21</v>
       </c>
@@ -1590,10 +1952,10 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17">
         <v>22</v>
@@ -1601,8 +1963,17 @@
       <c r="I17" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="K17" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>23</v>
       </c>
@@ -1611,19 +1982,28 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H18">
         <v>24</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19">
         <v>25</v>
       </c>
@@ -1640,7 +2020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:13">
       <c r="B20">
         <v>27</v>
       </c>
@@ -1654,17 +2034,17 @@
         <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21">
         <v>29</v>
       </c>
@@ -1678,17 +2058,17 @@
         <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22">
         <v>31</v>
       </c>
@@ -1699,17 +2079,17 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23">
         <v>33</v>
       </c>
@@ -1720,17 +2100,17 @@
         <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24">
         <v>35</v>
       </c>
@@ -1739,26 +2119,26 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" t="s">
         <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
       </c>
       <c r="H24">
         <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25">
         <v>37</v>
       </c>
@@ -1767,155 +2147,155 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="J29" s="15"/>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H30">
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" t="s">
         <v>144</v>
-      </c>
-      <c r="F31" t="s">
-        <v>146</v>
       </c>
       <c r="H31">
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H32">
         <v>8</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -1927,10 +2307,10 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -1944,27 +2324,27 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:12">
@@ -1972,29 +2352,29 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35">
         <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:12">
@@ -2002,27 +2382,27 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="L36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:12">
@@ -2030,14 +2410,14 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37">
         <v>18</v>
@@ -2051,14 +2431,14 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38">
         <v>20</v>
@@ -2072,27 +2452,27 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39">
         <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="2:12">
@@ -2100,27 +2480,27 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H40">
         <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -2128,27 +2508,27 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H41">
         <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:12">
@@ -2156,26 +2536,26 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42">
         <v>28</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s">
         <v>13</v>
       </c>
       <c r="L42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:12">
@@ -2183,27 +2563,27 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H43">
         <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="L43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:12">
@@ -2211,20 +2591,20 @@
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44">
         <v>32</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:12">
@@ -2232,20 +2612,27 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H45">
         <v>34</v>
       </c>
       <c r="I45" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" t="s">
+        <v>192</v>
+      </c>
+      <c r="L45" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -2253,7 +2640,13 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
       </c>
       <c r="H46">
         <v>36</v>
@@ -2267,7 +2660,13 @@
         <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" t="s">
+        <v>187</v>
       </c>
       <c r="H47">
         <v>38</v>
@@ -2276,691 +2675,520 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:7">
       <c r="A49" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="B50" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" s="21" customFormat="1">
-      <c r="B51" s="21">
-        <v>1</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="21" customFormat="1">
-      <c r="B52" s="21">
-        <v>2</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="21" customFormat="1">
-      <c r="B53" s="21">
-        <v>3</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="21" customFormat="1">
-      <c r="B54" s="21">
-        <v>4</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="21" customFormat="1">
-      <c r="B55" s="21">
-        <v>5</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="21" customFormat="1">
-      <c r="B56" s="21">
-        <v>6</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="21" customFormat="1">
-      <c r="B57" s="21">
-        <v>7</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="21" customFormat="1">
-      <c r="B58" s="21">
-        <v>8</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="21" customFormat="1">
-      <c r="B59" s="21">
-        <v>9</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="21" customFormat="1">
-      <c r="B60" s="21">
-        <v>10</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="21" customFormat="1">
-      <c r="B61" s="21">
-        <v>11</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="21" customFormat="1">
-      <c r="D62" s="31"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12">
-      <c r="B65" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I65" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L65" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12">
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="11"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="E57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" t="s">
+        <v>234</v>
+      </c>
+      <c r="G63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" t="s">
+        <v>224</v>
+      </c>
+      <c r="F64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="B66" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="4"/>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="F66" t="s">
-        <v>127</v>
-      </c>
-      <c r="H66">
-        <v>28</v>
-      </c>
-      <c r="I66" t="s">
-        <v>116</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="K66" t="s">
-        <v>142</v>
-      </c>
-      <c r="L66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12">
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>109</v>
-      </c>
-      <c r="D67" s="10"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="2"/>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="F67" t="s">
-        <v>160</v>
-      </c>
-      <c r="H67">
-        <v>27</v>
-      </c>
-      <c r="I67" t="s">
-        <v>117</v>
-      </c>
-      <c r="J67" s="4"/>
-      <c r="K67" t="s">
-        <v>142</v>
-      </c>
-      <c r="L67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12">
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="7"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="B68" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="12"/>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="F68" t="s">
-        <v>157</v>
-      </c>
-      <c r="H68">
-        <v>26</v>
-      </c>
-      <c r="I68" t="s">
-        <v>118</v>
-      </c>
-      <c r="J68" s="2"/>
-      <c r="K68" t="s">
-        <v>149</v>
-      </c>
-      <c r="L68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12">
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69" t="s">
-        <v>111</v>
-      </c>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" s="14"/>
       <c r="D69" s="8"/>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="F69" t="s">
-        <v>161</v>
-      </c>
-      <c r="H69">
-        <v>25</v>
-      </c>
-      <c r="I69" t="s">
-        <v>119</v>
-      </c>
-      <c r="J69" s="12"/>
-      <c r="K69" t="s">
-        <v>149</v>
-      </c>
-      <c r="L69" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12">
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" s="12"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="7"/>
       <c r="E70" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H70">
-        <v>24</v>
-      </c>
-      <c r="I70" t="s">
-        <v>120</v>
-      </c>
-      <c r="J70" s="8"/>
-      <c r="K70" t="s">
-        <v>149</v>
-      </c>
-      <c r="L70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12">
-      <c r="B71">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="35"/>
       <c r="E71" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
-      </c>
-      <c r="H71">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" s="33"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I71" t="s">
-        <v>121</v>
-      </c>
-      <c r="J71" s="7"/>
-      <c r="K71" t="s">
-        <v>142</v>
-      </c>
-      <c r="L71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12">
-      <c r="B72">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" t="s">
-        <v>159</v>
-      </c>
-      <c r="H72">
-        <v>22</v>
-      </c>
-      <c r="I72" t="s">
-        <v>122</v>
-      </c>
-      <c r="J72" s="10"/>
-      <c r="K72" t="s">
-        <v>25</v>
-      </c>
-      <c r="L72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12">
-      <c r="B73">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>115</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" t="s">
-        <v>128</v>
-      </c>
-      <c r="H73">
-        <v>21</v>
-      </c>
-      <c r="I73" t="s">
-        <v>123</v>
-      </c>
-      <c r="J73" s="18"/>
-      <c r="K73" t="s">
-        <v>25</v>
-      </c>
-      <c r="L73" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12">
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="H74">
-        <v>20</v>
-      </c>
-      <c r="I74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12">
-      <c r="B75">
-        <v>10</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="15"/>
-      <c r="H75">
-        <v>19</v>
-      </c>
-      <c r="I75" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12">
-      <c r="B76">
-        <v>11</v>
-      </c>
-      <c r="C76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="18"/>
+      <c r="F74" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="17"/>
+      <c r="B75" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="17"/>
+      <c r="B76" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="8"/>
       <c r="E76" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
-      </c>
-      <c r="H76">
-        <v>18</v>
-      </c>
-      <c r="I76" t="s">
-        <v>33</v>
-      </c>
-      <c r="J76" s="12"/>
-      <c r="K76" t="s">
-        <v>129</v>
-      </c>
-      <c r="L76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="B77">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="10"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="17"/>
+      <c r="B77" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="7"/>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77">
-        <v>17</v>
-      </c>
-      <c r="I77" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="B78">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="7"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="17"/>
+      <c r="B78" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="35"/>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78">
-        <v>16</v>
-      </c>
-      <c r="I78" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="B79">
-        <v>14</v>
-      </c>
-      <c r="C79" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" s="8"/>
-      <c r="E79" t="s">
-        <v>129</v>
-      </c>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="17"/>
+      <c r="B79" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="11"/>
       <c r="F79" t="s">
-        <v>48</v>
-      </c>
-      <c r="H79">
-        <v>15</v>
-      </c>
-      <c r="I79" t="s">
-        <v>56</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="17"/>
+      <c r="B80" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s">
+        <v>246</v>
+      </c>
+      <c r="F80" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="17" t="s">
-        <v>134</v>
+      <c r="A81" s="17"/>
+      <c r="B81" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="17" t="s">
-        <v>136</v>
+      <c r="A82" s="17"/>
+      <c r="B82" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" s="17"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="34"/>
+      <c r="E83" t="s">
+        <v>263</v>
+      </c>
+      <c r="F83" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" t="s">
-        <v>129</v>
-      </c>
-      <c r="F84" t="s">
-        <v>10</v>
+      <c r="B84" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="G84" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s">
-        <v>129</v>
-      </c>
-      <c r="F85" t="s">
-        <v>30</v>
+      <c r="B85" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="D86" s="4"/>
-      <c r="E86" t="s">
-        <v>129</v>
-      </c>
-      <c r="F86" t="s">
-        <v>31</v>
+      <c r="B86" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" t="s">
-        <v>98</v>
+      <c r="B87" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="B88">
-        <v>5</v>
+      <c r="B88" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="D88" s="12"/>
-      <c r="E88" t="s">
-        <v>129</v>
-      </c>
-      <c r="F88" t="s">
-        <v>97</v>
+      <c r="G88" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="B89">
-        <v>6</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" t="s">
-        <v>129</v>
-      </c>
-      <c r="F89" t="s">
-        <v>99</v>
+      <c r="B89" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="G89" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="B90">
-        <v>7</v>
-      </c>
-      <c r="D90" s="10"/>
+      <c r="B90" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" s="5"/>
       <c r="E90" t="s">
-        <v>129</v>
-      </c>
-      <c r="F90" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="B91">
-        <v>8</v>
-      </c>
-      <c r="D91" s="8"/>
+      <c r="B91" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="34"/>
       <c r="E91" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="B92" s="17"/>
+      <c r="B92" s="32"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="B93" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
+      <c r="A93" s="17" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="94" spans="1:12">
       <c r="B94" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
@@ -2969,492 +3197,1164 @@
       <c r="K94" s="17"/>
       <c r="L94" s="17"/>
     </row>
-    <row r="95" spans="1:12">
-      <c r="B95">
+    <row r="95" spans="1:12" s="21" customFormat="1">
+      <c r="B95" s="21">
         <v>1</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" t="s">
+      <c r="C95" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="21" customFormat="1">
+      <c r="B96" s="21">
+        <v>2</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="23"/>
+      <c r="E96" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="21" customFormat="1">
+      <c r="B97" s="21">
+        <v>3</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="25"/>
+      <c r="E97" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="21" customFormat="1">
+      <c r="B98" s="21">
+        <v>4</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" s="26"/>
+      <c r="E98" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="21" customFormat="1">
+      <c r="B99" s="21">
+        <v>5</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="21" customFormat="1">
+      <c r="B100" s="21">
+        <v>6</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" s="21" customFormat="1">
+      <c r="B101" s="21">
+        <v>7</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" s="21" customFormat="1">
+      <c r="B102" s="21">
+        <v>8</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="21" customFormat="1">
+      <c r="B103" s="21">
+        <v>9</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="28"/>
+      <c r="E103" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="21" customFormat="1">
+      <c r="B104" s="21">
+        <v>10</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="21" customFormat="1">
+      <c r="B105" s="21">
+        <v>11</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D105" s="30"/>
+      <c r="E105" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="21" customFormat="1">
+      <c r="D106" s="31"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="B109" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I109" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L109" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" t="s">
+        <v>26</v>
+      </c>
+      <c r="F110" t="s">
+        <v>125</v>
+      </c>
+      <c r="H110">
+        <v>28</v>
+      </c>
+      <c r="I110" t="s">
+        <v>114</v>
+      </c>
+      <c r="J110" s="5"/>
+      <c r="K110" t="s">
+        <v>140</v>
+      </c>
+      <c r="L110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>107</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" t="s">
+        <v>26</v>
+      </c>
+      <c r="F111" t="s">
+        <v>158</v>
+      </c>
+      <c r="H111">
+        <v>27</v>
+      </c>
+      <c r="I111" t="s">
+        <v>115</v>
+      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" t="s">
+        <v>140</v>
+      </c>
+      <c r="L111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>108</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" t="s">
+        <v>155</v>
+      </c>
+      <c r="H112">
+        <v>26</v>
+      </c>
+      <c r="I112" t="s">
+        <v>116</v>
+      </c>
+      <c r="J112" s="2"/>
+      <c r="K112" t="s">
+        <v>147</v>
+      </c>
+      <c r="L112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>159</v>
+      </c>
+      <c r="H113">
+        <v>25</v>
+      </c>
+      <c r="I113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J113" s="12"/>
+      <c r="K113" t="s">
+        <v>147</v>
+      </c>
+      <c r="L113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>110</v>
+      </c>
+      <c r="D114" s="12"/>
+      <c r="E114" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" t="s">
+        <v>156</v>
+      </c>
+      <c r="H114">
+        <v>24</v>
+      </c>
+      <c r="I114" t="s">
+        <v>118</v>
+      </c>
+      <c r="J114" s="8"/>
+      <c r="K114" t="s">
+        <v>147</v>
+      </c>
+      <c r="L114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s">
+        <v>160</v>
+      </c>
+      <c r="H115">
+        <v>23</v>
+      </c>
+      <c r="I115" t="s">
+        <v>119</v>
+      </c>
+      <c r="J115" s="7"/>
+      <c r="K115" t="s">
+        <v>140</v>
+      </c>
+      <c r="L115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" t="s">
+        <v>157</v>
+      </c>
+      <c r="H116">
+        <v>22</v>
+      </c>
+      <c r="I116" t="s">
+        <v>120</v>
+      </c>
+      <c r="J116" s="10"/>
+      <c r="K116" t="s">
+        <v>25</v>
+      </c>
+      <c r="L116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" t="s">
+        <v>126</v>
+      </c>
+      <c r="H117">
+        <v>21</v>
+      </c>
+      <c r="I117" t="s">
+        <v>121</v>
+      </c>
+      <c r="J117" s="18"/>
+      <c r="K117" t="s">
+        <v>25</v>
+      </c>
+      <c r="L117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="H118">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="15"/>
+      <c r="H119">
+        <v>19</v>
+      </c>
+      <c r="I119" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" t="s">
+        <v>48</v>
+      </c>
+      <c r="H120">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>32</v>
+      </c>
+      <c r="J120" s="12"/>
+      <c r="K120" t="s">
+        <v>127</v>
+      </c>
+      <c r="L120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" t="s">
+        <v>127</v>
+      </c>
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" t="s">
+        <v>127</v>
+      </c>
+      <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122">
+        <v>16</v>
+      </c>
+      <c r="I122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="B123">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" t="s">
+        <v>127</v>
+      </c>
+      <c r="F123" t="s">
+        <v>47</v>
+      </c>
+      <c r="H123">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="B126" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="B127" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" s="17"/>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="36"/>
+      <c r="D128" s="3"/>
+      <c r="E128" t="s">
+        <v>127</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s">
+        <v>127</v>
+      </c>
+      <c r="F129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" t="s">
+        <v>127</v>
+      </c>
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12">
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" t="s">
+        <v>127</v>
+      </c>
+      <c r="F131" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="D132" s="12"/>
+      <c r="E132" t="s">
+        <v>127</v>
+      </c>
+      <c r="F132" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12">
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" t="s">
+        <v>127</v>
+      </c>
+      <c r="F133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12">
+      <c r="B134">
+        <v>7</v>
+      </c>
+      <c r="D134" s="10"/>
+      <c r="E134" t="s">
+        <v>127</v>
+      </c>
+      <c r="F134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12">
+      <c r="B135">
+        <v>8</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" t="s">
+        <v>127</v>
+      </c>
+      <c r="F135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12">
+      <c r="B136" s="17"/>
+    </row>
+    <row r="137" spans="2:12">
+      <c r="B137" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F95" t="s">
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+    </row>
+    <row r="138" spans="2:12">
+      <c r="B138" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+    </row>
+    <row r="139" spans="2:12">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="14"/>
+      <c r="D139" s="3"/>
+      <c r="E139" t="s">
+        <v>133</v>
+      </c>
+      <c r="F139" t="s">
         <v>10</v>
       </c>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="B96">
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+    </row>
+    <row r="140" spans="2:12">
+      <c r="B140">
         <v>2</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s">
-        <v>135</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="D140" s="2"/>
+      <c r="E140" t="s">
+        <v>133</v>
+      </c>
+      <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+    </row>
+    <row r="141" spans="2:12">
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" t="s">
+        <v>133</v>
+      </c>
+      <c r="F141" t="s">
         <v>30</v>
       </c>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-    </row>
-    <row r="97" spans="2:12">
-      <c r="B97">
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+    </row>
+    <row r="142" spans="2:12">
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="D142" s="20"/>
+      <c r="E142" t="s">
+        <v>133</v>
+      </c>
+      <c r="F142" t="s">
+        <v>97</v>
+      </c>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+    </row>
+    <row r="143" spans="2:12">
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="D143" s="13"/>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+    </row>
+    <row r="144" spans="2:12">
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="D144" s="13"/>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+    </row>
+    <row r="145" spans="2:12">
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="D145" s="13"/>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+    </row>
+    <row r="146" spans="2:12">
+      <c r="B146">
+        <v>8</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" t="s">
+        <v>133</v>
+      </c>
+      <c r="F146" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12">
+      <c r="B148" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+    </row>
+    <row r="149" spans="2:12">
+      <c r="B149" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+    </row>
+    <row r="150" spans="2:12">
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" t="s">
+        <v>137</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+    </row>
+    <row r="151" spans="2:12">
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s">
+        <v>137</v>
+      </c>
+      <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+    </row>
+    <row r="152" spans="2:12">
+      <c r="B152">
         <v>3</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" t="s">
-        <v>135</v>
-      </c>
-      <c r="F97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-    </row>
-    <row r="98" spans="2:12">
-      <c r="B98">
+      <c r="D152" s="4"/>
+      <c r="E152" t="s">
+        <v>137</v>
+      </c>
+      <c r="F152" t="s">
+        <v>30</v>
+      </c>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="2:12">
+      <c r="B153">
         <v>4</v>
       </c>
-      <c r="D98" s="20"/>
-      <c r="E98" t="s">
-        <v>135</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="D153" s="13"/>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
+    </row>
+    <row r="154" spans="2:12">
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="D154" s="20"/>
+      <c r="E154" t="s">
+        <v>137</v>
+      </c>
+      <c r="F154" t="s">
+        <v>96</v>
+      </c>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+    </row>
+    <row r="155" spans="2:12">
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="D155" s="13"/>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+    </row>
+    <row r="156" spans="2:12">
+      <c r="B156">
+        <v>7</v>
+      </c>
+      <c r="D156" s="13"/>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+    </row>
+    <row r="157" spans="2:12">
+      <c r="B157">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>162</v>
+      </c>
+      <c r="F157" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12">
+      <c r="B159" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+    </row>
+    <row r="160" spans="2:12">
+      <c r="B160" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+    </row>
+    <row r="161" spans="2:12">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" t="s">
+        <v>139</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+    </row>
+    <row r="162" spans="2:12">
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s">
+        <v>139</v>
+      </c>
+      <c r="F162" t="s">
+        <v>29</v>
+      </c>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+    </row>
+    <row r="163" spans="2:12">
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" t="s">
+        <v>139</v>
+      </c>
+      <c r="F163" t="s">
+        <v>30</v>
+      </c>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+    </row>
+    <row r="164" spans="2:12">
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="D164" s="13"/>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+    </row>
+    <row r="165" spans="2:12">
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="D165" s="13"/>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+    </row>
+    <row r="166" spans="2:12">
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="D166" s="20"/>
+      <c r="E166" t="s">
+        <v>139</v>
+      </c>
+      <c r="F166" t="s">
         <v>98</v>
       </c>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-    </row>
-    <row r="99" spans="2:12">
-      <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="D99" s="13"/>
-      <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-    </row>
-    <row r="100" spans="2:12">
-      <c r="B100">
-        <v>6</v>
-      </c>
-      <c r="D100" s="13"/>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-    </row>
-    <row r="101" spans="2:12">
-      <c r="B101">
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+    </row>
+    <row r="167" spans="2:12">
+      <c r="B167">
         <v>7</v>
       </c>
-      <c r="D101" s="13"/>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-    </row>
-    <row r="102" spans="2:12">
-      <c r="B102">
+      <c r="D167" s="10"/>
+      <c r="E167" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" t="s">
+        <v>99</v>
+      </c>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+    </row>
+    <row r="168" spans="2:12">
+      <c r="B168">
         <v>8</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" t="s">
-        <v>135</v>
-      </c>
-      <c r="F102" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12">
-      <c r="B104" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-    </row>
-    <row r="105" spans="2:12">
-      <c r="B105" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-    </row>
-    <row r="106" spans="2:12">
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" t="s">
-        <v>139</v>
-      </c>
-      <c r="F106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-    </row>
-    <row r="107" spans="2:12">
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s">
-        <v>139</v>
-      </c>
-      <c r="F107" t="s">
-        <v>30</v>
-      </c>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="2:12">
-      <c r="B108">
-        <v>3</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" t="s">
-        <v>139</v>
-      </c>
-      <c r="F108" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-    </row>
-    <row r="109" spans="2:12">
-      <c r="B109">
-        <v>4</v>
-      </c>
-      <c r="D109" s="13"/>
-      <c r="E109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-    </row>
-    <row r="110" spans="2:12">
-      <c r="B110">
-        <v>5</v>
-      </c>
-      <c r="D110" s="20"/>
-      <c r="E110" t="s">
-        <v>139</v>
-      </c>
-      <c r="F110" t="s">
-        <v>97</v>
-      </c>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-    </row>
-    <row r="111" spans="2:12">
-      <c r="B111">
-        <v>6</v>
-      </c>
-      <c r="D111" s="13"/>
-      <c r="E111" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="2:12">
-      <c r="B112">
-        <v>7</v>
-      </c>
-      <c r="D112" s="13"/>
-      <c r="E112" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="2:12">
-      <c r="B113">
-        <v>8</v>
-      </c>
-      <c r="E113" t="s">
-        <v>165</v>
-      </c>
-      <c r="F113" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12">
-      <c r="B115" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-    </row>
-    <row r="116" spans="2:12">
-      <c r="B116" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-    </row>
-    <row r="117" spans="2:12">
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="E117" t="s">
-        <v>141</v>
-      </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-    </row>
-    <row r="118" spans="2:12">
-      <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s">
-        <v>141</v>
-      </c>
-      <c r="F118" t="s">
-        <v>30</v>
-      </c>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-    </row>
-    <row r="119" spans="2:12">
-      <c r="B119">
-        <v>3</v>
-      </c>
-      <c r="D119" s="4"/>
-      <c r="E119" t="s">
-        <v>141</v>
-      </c>
-      <c r="F119" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-    </row>
-    <row r="120" spans="2:12">
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="D120" s="13"/>
-      <c r="E120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-    </row>
-    <row r="121" spans="2:12">
-      <c r="B121">
-        <v>5</v>
-      </c>
-      <c r="D121" s="13"/>
-      <c r="E121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-    </row>
-    <row r="122" spans="2:12">
-      <c r="B122">
-        <v>6</v>
-      </c>
-      <c r="D122" s="20"/>
-      <c r="E122" t="s">
-        <v>141</v>
-      </c>
-      <c r="F122" t="s">
-        <v>99</v>
-      </c>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-    </row>
-    <row r="123" spans="2:12">
-      <c r="B123">
-        <v>7</v>
-      </c>
-      <c r="D123" s="10"/>
-      <c r="E123" t="s">
-        <v>141</v>
-      </c>
-      <c r="F123" t="s">
-        <v>100</v>
-      </c>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-    </row>
-    <row r="124" spans="2:12">
-      <c r="B124">
-        <v>8</v>
-      </c>
-      <c r="F124" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="126" spans="2:12">
-      <c r="B126" s="13"/>
-      <c r="C126" s="14"/>
-      <c r="D126" t="s">
-        <v>91</v>
+      <c r="E168" t="s">
+        <v>162</v>
+      </c>
+      <c r="F168" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12">
+      <c r="B170" s="13"/>
+      <c r="C170" s="14"/>
+      <c r="D170" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="62" max="16383" man="1"/>
+    <brk id="106" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/ベースマシン接続一覧表.xlsx
+++ b/ベースマシン接続一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="268">
   <si>
     <t>ベースマシン接続一覧表</t>
     <rPh sb="6" eb="8">
@@ -723,10 +723,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.03.04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BPM_A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -944,13 +940,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←再チェック</t>
-    <rPh sb="1" eb="2">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UI2 Board</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1032,14 +1021,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>POT/VCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POT/GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Nucleo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1048,22 +1029,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UI1/PWR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>←再チェック</t>
-    <rPh sb="1" eb="6">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>+3.3V</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←チェック</t>
+    <t>POT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+3.3V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI1/GLCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+3.3V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.04.10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1652,7 +1646,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10260" topLeftCell="A75"/>
-      <selection activeCell="B172" sqref="B172"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -1675,7 +1669,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1877,7 +1871,7 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -1892,16 +1886,23 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H14">
         <v>16</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>31</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" t="s">
+        <v>261</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="O14" s="1"/>
       <c r="R14" s="1"/>
@@ -1915,7 +1916,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
@@ -1942,8 +1943,15 @@
       <c r="I16" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="J16" s="3"/>
+      <c r="K16" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17">
         <v>21</v>
       </c>
@@ -1952,7 +1960,7 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
@@ -1963,17 +1971,15 @@
       <c r="I17" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="J17" s="3"/>
       <c r="K17" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18">
         <v>23</v>
       </c>
@@ -1982,7 +1988,7 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
         <v>141</v>
@@ -1993,17 +1999,15 @@
       <c r="I18" s="14" t="s">
         <v>39</v>
       </c>
+      <c r="J18" s="5"/>
       <c r="K18" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19">
         <v>25</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:12">
       <c r="B20">
         <v>27</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:12">
       <c r="B21">
         <v>29</v>
       </c>
@@ -2068,7 +2072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:12">
       <c r="B22">
         <v>31</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:12">
       <c r="B23">
         <v>33</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:12">
       <c r="B24">
         <v>35</v>
       </c>
@@ -2119,7 +2123,7 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -2138,7 +2142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:12">
       <c r="B25">
         <v>37</v>
       </c>
@@ -2166,12 +2170,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:12">
       <c r="B27" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:12">
       <c r="B28" s="17" t="s">
         <v>2</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:12">
       <c r="B29">
         <v>1</v>
       </c>
@@ -2209,7 +2213,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
         <v>91</v>
@@ -2222,13 +2226,13 @@
       </c>
       <c r="J29" s="15"/>
       <c r="K29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:12">
       <c r="B30">
         <v>3</v>
       </c>
@@ -2250,13 +2254,13 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:12">
       <c r="B31">
         <v>5</v>
       </c>
@@ -2278,13 +2282,13 @@
       </c>
       <c r="J31" s="11"/>
       <c r="K31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:12">
       <c r="B32">
         <v>7</v>
       </c>
@@ -2341,7 +2345,7 @@
       </c>
       <c r="J34" s="4"/>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s">
         <v>102</v>
@@ -2371,7 +2375,7 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s">
         <v>103</v>
@@ -2399,7 +2403,7 @@
       </c>
       <c r="J36" s="4"/>
       <c r="K36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s">
         <v>48</v>
@@ -2469,7 +2473,7 @@
       </c>
       <c r="J39" s="5"/>
       <c r="K39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s">
         <v>32</v>
@@ -2497,7 +2501,7 @@
       </c>
       <c r="J40" s="15"/>
       <c r="K40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L40" t="s">
         <v>55</v>
@@ -2525,7 +2529,7 @@
       </c>
       <c r="J41" s="7"/>
       <c r="K41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L41" t="s">
         <v>30</v>
@@ -2540,7 +2544,7 @@
       </c>
       <c r="D42" s="15"/>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F42" t="s">
         <v>95</v>
@@ -2567,7 +2571,7 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F43" t="s">
         <v>94</v>
@@ -2580,7 +2584,7 @@
       </c>
       <c r="J43" s="11"/>
       <c r="K43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L43" t="s">
         <v>29</v>
@@ -2595,7 +2599,7 @@
       </c>
       <c r="D44" s="4"/>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F44" t="s">
         <v>93</v>
@@ -2616,7 +2620,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F45" t="s">
         <v>92</v>
@@ -2629,10 +2633,10 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L45" t="s">
         <v>192</v>
-      </c>
-      <c r="L45" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -2643,10 +2647,10 @@
         <v>75</v>
       </c>
       <c r="E46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" t="s">
         <v>185</v>
-      </c>
-      <c r="F46" t="s">
-        <v>186</v>
       </c>
       <c r="H46">
         <v>36</v>
@@ -2663,10 +2667,10 @@
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H47">
         <v>38</v>
@@ -2675,12 +2679,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:6">
       <c r="A49" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="B50" s="17" t="s">
         <v>2</v>
       </c>
@@ -2695,254 +2699,249 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:6">
       <c r="B51" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="B52" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="B53" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53" t="s">
         <v>203</v>
       </c>
-      <c r="F53" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:6">
       <c r="B54" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F54" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="B55" s="33" t="s">
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="B57" s="33" t="s">
         <v>206</v>
-      </c>
-      <c r="D55" s="13"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="B56" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="B57" s="33" t="s">
-        <v>207</v>
       </c>
       <c r="C57" s="14"/>
       <c r="E57" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="B58" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:6">
       <c r="B59" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="B60" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="B61" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F61" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="B62" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
-      </c>
-      <c r="G62" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="B63" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F63" t="s">
-        <v>234</v>
-      </c>
-      <c r="G63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="B64" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="B65" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" t="s">
         <v>224</v>
-      </c>
-      <c r="F65" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="B66" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="B67" s="33" t="s">
-        <v>217</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C67" s="14"/>
       <c r="D67" s="2"/>
       <c r="E67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="B68" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="12"/>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="B69" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="8"/>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="B70" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="B71" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2950,7 +2949,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2971,202 +2970,205 @@
     <row r="75" spans="1:6">
       <c r="A75" s="17"/>
       <c r="B75" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="17"/>
       <c r="B76" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="17"/>
       <c r="B77" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="17"/>
       <c r="B78" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="17"/>
       <c r="B79" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D79" s="11"/>
       <c r="F79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="17"/>
       <c r="B80" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="17"/>
       <c r="B81" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="17"/>
       <c r="B82" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="17"/>
       <c r="B83" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="34"/>
       <c r="E83" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="B84" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="G84" t="s">
-        <v>267</v>
+      <c r="E84" t="s">
+        <v>265</v>
+      </c>
+      <c r="F84" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="B85" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="B86" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="B87" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="B88" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D88" s="12"/>
-      <c r="G88" t="s">
-        <v>267</v>
+        <v>257</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" t="s">
+        <v>265</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="B89" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="G89" t="s">
-        <v>267</v>
+        <v>188</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F89" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="B90" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" t="s">
-        <v>260</v>
-      </c>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:12">
       <c r="B91" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="34"/>
-      <c r="E91" t="s">
-        <v>261</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:12">
       <c r="B92" s="32"/>
@@ -4044,6 +4046,7 @@
       <c r="B150">
         <v>1</v>
       </c>
+      <c r="C150" s="14"/>
       <c r="D150" s="3"/>
       <c r="E150" t="s">
         <v>137</v>
@@ -4214,6 +4217,7 @@
       <c r="B161">
         <v>1</v>
       </c>
+      <c r="C161" s="14"/>
       <c r="D161" s="3"/>
       <c r="E161" t="s">
         <v>139</v>
